--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
@@ -149,21 +149,21 @@
     <t>SYSTEM solicita confirmacao de exclusao</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -185,13 +185,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1458,13 +1458,13 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1478,175 +1478,175 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B68" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B72" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
+      <c r="D72" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
+      <c r="F72" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="B73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="8">
+      <c r="F73" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B74" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="5">
+      <c r="C74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B75" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C75" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D75" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E75" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F75" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>2</v>
@@ -1731,8 +1731,8 @@
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:F74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
@@ -149,21 +149,21 @@
     <t>SYSTEM solicita confirmacao de exclusao</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -185,13 +185,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
   </si>
 </sst>
 </file>
@@ -1458,13 +1458,13 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1478,13 +1478,13 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s" s="6">
         <v>2</v>
@@ -1493,160 +1493,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B67" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D67" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E67" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B68" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E68" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="67"/>
+    <row r="68"/>
     <row r="69">
-      <c r="A69" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B69" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D69" t="s" s="7">
-        <v>57</v>
-      </c>
-      <c r="E69" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F69" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70"/>
-    <row r="71"/>
+      <c r="A69" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s" s="4">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F70" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B71" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B72" t="s" s="4">
-        <v>58</v>
-      </c>
-      <c r="C72" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s" s="4">
-        <v>2</v>
+      <c r="A72" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F72" t="s" s="5">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F73" t="s" s="9">
+      <c r="A73" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="8">
+      <c r="A74" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B75" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D75" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E75" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F75" t="s" s="5">
-        <v>25</v>
+      <c r="A75" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>2</v>
@@ -1731,8 +1731,8 @@
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:F71"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
@@ -149,25 +149,25 @@
     <t>SYSTEM solicita confirmacao de exclusao</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias excluido</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
   </si>
   <si>
     <t>TC4</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Niveis das Competencias</t>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Nivel das Competencias, informando o campo ou a validacao que falhou</t>
@@ -1478,7 +1478,7 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>

--- a/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
+++ b/output/xlsx/RF013 - Gerenciar Niveis das Competencias--GTP-.xlsx
@@ -149,21 +149,21 @@
     <t>SYSTEM solicita confirmacao de exclusao</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do Nivel das Competencias</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Niveis das Competencias sem o Nivel das Competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Niveis das Competencias com o Nivel das Competencias nao excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -185,13 +185,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Nivel das Competencias</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Nivel das Competencias, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1458,13 +1458,13 @@
         <v>3.0</v>
       </c>
       <c r="B65" t="s" s="7">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D65" t="s" s="7">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s" s="6">
         <v>2</v>
@@ -1478,175 +1478,175 @@
         <v>4.0</v>
       </c>
       <c r="B66" t="s" s="7">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D66" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E66" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B68" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="E66" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69">
-      <c r="A69" t="s" s="4">
+      <c r="E69" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B69" t="s" s="4">
+      <c r="B72" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="C69" t="s" s="4">
+      <c r="C72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D69" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s" s="4">
+      <c r="D72" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F69" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="9">
+      <c r="F72" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D70" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s" s="9">
+      <c r="B73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F70" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="8">
+      <c r="F73" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="B74" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F71" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="5">
+      <c r="C74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B72" t="s" s="5">
+      <c r="B75" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C75" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D75" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E75" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F75" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B73" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B74" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B76" t="s" s="7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D76" t="s" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E76" t="s" s="6">
         <v>2</v>
@@ -1657,16 +1657,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="10">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B77" t="s" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D77" t="s" s="7">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s" s="6">
         <v>2</v>
@@ -1677,16 +1677,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="10">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B78" t="s" s="7">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D78" t="s" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E78" t="s" s="6">
         <v>2</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n" s="10">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="B79" t="s" s="7">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s" s="6">
         <v>2</v>
@@ -1731,8 +1731,8 @@
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:F74"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
